--- a/Lab1/analysis/Func2/double-1.xlsx
+++ b/Lab1/analysis/Func2/double-1.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilan\Programming\University\AILab\Lab1\analysis\Func2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\AI lab\AILab\Lab1\analysis\Func2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -597,6 +597,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1882,7 +1883,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1FDD-4939-B6E4-E2B2D02F3EB6}"/>
             </c:ext>
@@ -1896,11 +1897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="464359800"/>
-        <c:axId val="464357176"/>
+        <c:axId val="281413312"/>
+        <c:axId val="281418752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="464359800"/>
+        <c:axId val="281413312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1921,6 +1922,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mutation Rate (Probability)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1958,12 +2015,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464357176"/>
+        <c:crossAx val="281418752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464357176"/>
+        <c:axId val="281418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000009"/>
@@ -1984,6 +2041,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2021,7 +2139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464359800"/>
+        <c:crossAx val="281413312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2071,7 +2189,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2110,6 +2228,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3395,7 +3514,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FFFE-4168-AB80-62DC331E672E}"/>
             </c:ext>
@@ -3409,11 +3528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="464359800"/>
-        <c:axId val="464357176"/>
+        <c:axId val="281420384"/>
+        <c:axId val="233491456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="464359800"/>
+        <c:axId val="281420384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3434,6 +3553,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mutation Rate</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Probability)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3471,12 +3651,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464357176"/>
+        <c:crossAx val="233491456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464357176"/>
+        <c:axId val="233491456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.1"/>
@@ -3497,6 +3677,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3534,7 +3770,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464359800"/>
+        <c:crossAx val="281420384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3584,7 +3820,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3623,6 +3859,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4908,7 +5145,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A017-4A34-A6CF-3701E5119E45}"/>
             </c:ext>
@@ -4922,11 +5159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="464359800"/>
-        <c:axId val="464357176"/>
+        <c:axId val="233480032"/>
+        <c:axId val="233481664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="464359800"/>
+        <c:axId val="233480032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4984,13 +5221,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464357176"/>
+        <c:crossAx val="233481664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464357176"/>
+        <c:axId val="233481664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.5000000000000003E-2"/>
@@ -5048,7 +5285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464359800"/>
+        <c:crossAx val="233480032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7166,7 +7403,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
